--- a/output/ejecucion_1/results/base1/base1_ci_rf_o.xlsx
+++ b/output/ejecucion_1/results/base1/base1_ci_rf_o.xlsx
@@ -82,27 +82,27 @@
     <t>_tejgrb_redr</t>
   </si>
   <si>
+    <t>_tejgft_redr</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2pgrco</t>
+  </si>
+  <si>
+    <t>_tejgge_r09ct05biser</t>
+  </si>
+  <si>
     <t>_tejgfun_f5ct05prots</t>
   </si>
   <si>
-    <t>_tejgft_redr</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2pgrco</t>
-  </si>
-  <si>
-    <t>_tejgge_r09ct05biser</t>
+    <t>_tejgct_r09gstcrpc</t>
+  </si>
+  <si>
+    <t>tejgfun_f1ct05pgrco</t>
   </si>
   <si>
     <t>devppimfun_f2ct06agro</t>
   </si>
   <si>
-    <t>tejgfun_f1ct05pgrco</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcrpc</t>
-  </si>
-  <si>
     <t>_tejgfun_f2ct05pgrco</t>
   </si>
   <si>
@@ -112,64 +112,64 @@
     <t>tejgfun_f1ct05pgrcopc</t>
   </si>
   <si>
+    <t>piagtotfun_f5trans</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct06trans</t>
+  </si>
+  <si>
+    <t>devppimrb_canr</t>
+  </si>
+  <si>
+    <t>_tejgge_r08ct05biserpc</t>
+  </si>
+  <si>
     <t>compu_muni_5</t>
   </si>
   <si>
-    <t>piagtotfun_f5trans</t>
-  </si>
-  <si>
-    <t>devppimrb_canr</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r18ct06trans</t>
-  </si>
-  <si>
     <t>dfgpimpiafun_f5r08ct05agro</t>
   </si>
   <si>
-    <t>_tejgge_r08ct05biserpc</t>
-  </si>
-  <si>
     <t>bvleche_16</t>
   </si>
   <si>
+    <t>tdvgtotfun_f5r07comepc</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5ct06pgrco</t>
+  </si>
+  <si>
+    <t>dfgdevpiagtotfun_f5r07comepc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagrb_foncpc</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r07ct05viv</t>
+  </si>
+  <si>
     <t>_tdvgfun_f5ct05prots</t>
   </si>
   <si>
+    <t>_dfgdevpiagrb_foncpc</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5r18opseg</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f1pgrco</t>
+  </si>
+  <si>
+    <t>per_038</t>
+  </si>
+  <si>
     <t>dfgdevpiagge_r08ct05pobsopc</t>
   </si>
   <si>
-    <t>tdvgtotfun_f5r07comepc</t>
-  </si>
-  <si>
     <t>_tejgge_r09ct05otgstpc</t>
   </si>
   <si>
-    <t>_devppimfun_f5ct06pgrco</t>
-  </si>
-  <si>
-    <t>dfgdevpiagtotfun_f5r07comepc</t>
-  </si>
-  <si>
-    <t>devppimgkft_rdet</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r07ct05viv</t>
-  </si>
-  <si>
-    <t>dfgdevpiagrb_fonc</t>
-  </si>
-  <si>
-    <t>tejgtotfun_f1pgrco</t>
-  </si>
-  <si>
     <t>piagtotfun_f5r07protspc</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f2ct05pgrco</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05pgrco</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01393268779677233</v>
+        <v>0.01453988284457526</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.01078665829527587</v>
+        <v>0.0113071124390496</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01016537639937677</v>
+        <v>0.01069627994486742</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.009986770816203945</v>
+        <v>0.01034545469611368</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.008409465575798636</v>
+        <v>0.00879744704735819</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.006527169939026821</v>
+        <v>0.006800414947068067</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.006173308783778057</v>
+        <v>0.00641436438821474</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.00602280945961027</v>
+        <v>0.00625074298682951</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.00561041527390855</v>
+        <v>0.005861190501612721</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.00522553620789329</v>
+        <v>0.005454849117191334</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.004506812959959018</v>
+        <v>0.004733302525147709</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.004240780140490993</v>
+        <v>0.004477698035055916</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.003800418481221264</v>
+        <v>0.004010693001527983</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.003459301473166442</v>
+        <v>0.003660237225034375</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.003412082754769626</v>
+        <v>0.003476998729015072</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.003195452912016485</v>
+        <v>0.003362784643537152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.003160960313569695</v>
+        <v>0.003311965964916121</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.002726959356648888</v>
+        <v>0.002947250051367595</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.002306685565452072</v>
+        <v>0.002277719361433342</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.001917631633239891</v>
+        <v>0.002079869267472687</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.001737466776454061</v>
+        <v>0.001813042162235562</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.001663088206615512</v>
+        <v>0.001661774444638138</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.001579347226948217</v>
+        <v>0.001607645658770075</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.001526111288188012</v>
+        <v>0.001580438106153337</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.001408727984611949</v>
+        <v>0.001434076594039504</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.001374196726813015</v>
+        <v>0.001410891486575873</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.001358320878921676</v>
+        <v>0.00138654968674241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.001277212976441889</v>
+        <v>0.001297504592780658</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.001264246767444102</v>
+        <v>0.001266730292233024</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001217603103555673</v>
+        <v>0.001212909696069222</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.001217160365038178</v>
+        <v>0.001210559054423836</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001215169438217908</v>
+        <v>0.001152625747016905</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.001205674223659721</v>
+        <v>0.001144557181629784</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.001136628406934597</v>
+        <v>0.001098145884837604</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.001074969987419099</v>
+        <v>0.00108690983935262</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.001060387299178569</v>
+        <v>0.001055598806744236</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.001045309938758262</v>
+        <v>0.0009894476232293918</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.001025256282096356</v>
+        <v>0.0009710239387325883</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.001003646932355135</v>
+        <v>0.0009469991479901625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.001001689971203276</v>
+        <v>0.0009149755378173249</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.0009624744302962751</v>
+        <v>0.0009117859812881071</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.0009407430198469938</v>
+        <v>0.0009016316426015939</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.0008931286780868446</v>
+        <v>0.0008622237936221261</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.000883534934159491</v>
+        <v>0.0008368368683492897</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.0008810029635049819</v>
+        <v>0.0008338826064467036</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.0008407990390003318</v>
+        <v>0.0008277056740861991</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.0008205503514170663</v>
+        <v>0.0008274997601231334</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.0007951212271131672</v>
+        <v>0.0008224657154566134</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.000790679998848168</v>
+        <v>0.0008208686560487466</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.0007794309761938494</v>
+        <v>0.0008073635729257993</v>
       </c>
     </row>
   </sheetData>
